--- a/DocumentaciónT/CasosDePrueba.xlsx
+++ b/DocumentaciónT/CasosDePrueba.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="bk7lEWtKGfFI3/OMW2rJriaPmruiTfGMlls/b0dkAxc="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="vrivtS8jinarhH7t6x2k0umUg8lAN4N4Iw8VYZ1NE5o="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
   <si>
     <t>ID del Caso de Prueba</t>
   </si>
@@ -111,10 +111,16 @@
     <t>test_creacion_usuario_usuario_ya_existente</t>
   </si>
   <si>
+    <t>test_creacion_usuario_contraseña_diferente</t>
+  </si>
+  <si>
     <t>test_registrar_usuarios_status_200</t>
   </si>
   <si>
     <t>test_lista_usuarios_status_200</t>
+  </si>
+  <si>
+    <t>Listas</t>
   </si>
   <si>
     <t>test_eliminar_usuarios_status_200</t>
@@ -151,9 +157,6 @@
   </si>
   <si>
     <t>test_lista_equipo_status</t>
-  </si>
-  <si>
-    <t>Listas</t>
   </si>
   <si>
     <t>test_eliminar_orden</t>
@@ -310,10 +313,10 @@
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1175,16 +1178,16 @@
       <c r="Q23" s="10"/>
     </row>
     <row r="24" ht="22.5" customHeight="1">
-      <c r="A24" s="9">
+      <c r="A24" s="11">
         <v>23.0</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="3"/>
@@ -1235,7 +1238,7 @@
       <c r="B26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -1290,7 +1293,7 @@
         <v>37</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>6</v>
@@ -1314,10 +1317,10 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>6</v>
@@ -1341,10 +1344,10 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>6</v>
@@ -1368,10 +1371,10 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>6</v>
@@ -1391,16 +1394,16 @@
       <c r="Q31" s="3"/>
     </row>
     <row r="32" ht="22.5" customHeight="1">
-      <c r="A32" s="11">
+      <c r="A32" s="9">
         <v>31.0</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="14" t="s">
+      <c r="C32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="3"/>
@@ -1422,10 +1425,10 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>6</v>
@@ -1449,10 +1452,10 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>6</v>
@@ -1499,14 +1502,14 @@
       <c r="Q35" s="3"/>
     </row>
     <row r="36" ht="22.5" customHeight="1">
-      <c r="A36" s="11">
+      <c r="A36" s="9">
         <v>35.0</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>6</v>
@@ -1526,16 +1529,16 @@
       <c r="Q36" s="3"/>
     </row>
     <row r="37" ht="22.5" customHeight="1">
-      <c r="A37" s="11">
+      <c r="A37" s="9">
         <v>36.0</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="14" t="s">
+      <c r="C37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="3"/>
@@ -1553,14 +1556,14 @@
       <c r="Q37" s="3"/>
     </row>
     <row r="38" ht="22.5" customHeight="1">
-      <c r="A38" s="11">
+      <c r="A38" s="9">
         <v>37.0</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>6</v>
@@ -1580,14 +1583,14 @@
       <c r="Q38" s="3"/>
     </row>
     <row r="39" ht="22.5" customHeight="1">
-      <c r="A39" s="11">
+      <c r="A39" s="9">
         <v>38.0</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>6</v>
@@ -1607,10 +1610,18 @@
       <c r="Q39" s="3"/>
     </row>
     <row r="40" ht="22.5" customHeight="1">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
+      <c r="A40" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -1626,7 +1637,7 @@
       <c r="Q40" s="3"/>
     </row>
     <row r="41" ht="22.5" customHeight="1">
-      <c r="A41" s="19"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="16"/>
       <c r="C41" s="17"/>
       <c r="D41" s="18"/>
@@ -5406,7 +5417,25 @@
       <c r="P239" s="3"/>
       <c r="Q239" s="3"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="240" ht="22.5" customHeight="1">
+      <c r="A240" s="19"/>
+      <c r="B240" s="16"/>
+      <c r="C240" s="17"/>
+      <c r="D240" s="18"/>
+      <c r="E240" s="3"/>
+      <c r="F240" s="3"/>
+      <c r="G240" s="3"/>
+      <c r="H240" s="3"/>
+      <c r="I240" s="3"/>
+      <c r="J240" s="3"/>
+      <c r="K240" s="3"/>
+      <c r="L240" s="3"/>
+      <c r="M240" s="3"/>
+      <c r="N240" s="3"/>
+      <c r="O240" s="3"/>
+      <c r="P240" s="3"/>
+      <c r="Q240" s="3"/>
+    </row>
     <row r="241" ht="15.75" customHeight="1"/>
     <row r="242" ht="15.75" customHeight="1"/>
     <row r="243" ht="15.75" customHeight="1"/>
@@ -6169,6 +6198,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
